--- a/meta/components/PlainHomeSample.xlsx
+++ b/meta/components/PlainHomeSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F34155-067A-B049-88CC-513429CF6411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8DFA35-ADCC-DE40-99E5-7C5B341E4167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="7560" windowWidth="25200" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10100" yWindow="7440" windowWidth="25200" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VueComponent" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
   <si>
     <t>パッケージ</t>
   </si>
@@ -1025,6 +1025,41 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t xml:space="preserve">テイギシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>権限種別</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ケンゲンシュベツ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Home</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/* 画面の権限種別 */</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メニューラベル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/* menuLabelプロパティに定義されます。画面コンポーネントのメニューラベルに使用されることを想定しています。 */</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">ソウテイ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1147,7 +1182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1890,12 +1925,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2152,6 +2224,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2563,10 +2640,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2652,127 +2729,124 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="127"/>
+      <c r="C9" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="129"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="11"/>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="118"/>
       <c r="C11" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="11"/>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="117" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B12" s="118"/>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="11"/>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="117" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B13" s="118"/>
-      <c r="C13" s="76" t="s">
-        <v>62</v>
+      <c r="C13" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="11"/>
       <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="118"/>
+      <c r="C14" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="45" customHeight="1">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:11" ht="45" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="119" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="54" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="55" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -2781,44 +2855,44 @@
       <c r="I17"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86" t="s">
-        <v>112</v>
+      <c r="A18" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="55" t="s">
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
+      <c r="I18"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86" t="s">
+        <v>112</v>
+      </c>
       <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>113</v>
+      </c>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="54" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="55" t="s">
-        <v>14</v>
-      </c>
+      <c r="C20" s="55"/>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -2828,14 +2902,14 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="54" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -2845,14 +2919,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="54" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -2861,15 +2935,15 @@
       <c r="I22"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="123"/>
+      <c r="A23" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -2878,14 +2952,16 @@
       <c r="I23"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="13"/>
+      <c r="A24" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="123"/>
       <c r="C24" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
@@ -2893,16 +2969,14 @@
       <c r="I24"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="123"/>
+      <c r="A25" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="13"/>
       <c r="C25" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
+      <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -2911,13 +2985,15 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="122" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B26" s="123"/>
       <c r="C26" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D26"/>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -2925,253 +3001,249 @@
       <c r="I26"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="B27"/>
+      <c r="A27" s="122" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="123"/>
+      <c r="C27" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="57"/>
+      <c r="B29"/>
+      <c r="C29" s="73"/>
+      <c r="D29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="1" t="s">
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="93" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="94" t="s">
+      <c r="B32" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="96"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="96"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="102"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-    </row>
-    <row r="33" spans="1:12" s="108" customFormat="1">
-      <c r="A33" s="106"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="107"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="96"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" s="108" customFormat="1">
+      <c r="A36" s="106"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="107"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="1" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="39" t="s">
+    <row r="38" spans="1:12">
+      <c r="A38" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B38" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="43">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="43">
         <v>1</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B39" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="43">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="43">
         <v>2</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B40" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="44"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="29" t="s">
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="44"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="1" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="39" t="s">
+    <row r="44" spans="1:12">
+      <c r="A44" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B44" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="43">
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="43">
         <v>1</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B45" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="43">
-        <v>2</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="44"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="58"/>
       <c r="G45" s="58"/>
       <c r="H45" s="58"/>
@@ -3180,40 +3252,41 @@
       <c r="L45"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A46" s="43">
+        <v>2</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="43"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="58"/>
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
@@ -3222,121 +3295,124 @@
       <c r="L48"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="43"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="A49" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="44"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
+      <c r="A50" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
       <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="44"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="1" t="s">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="39" t="s">
+    <row r="56" spans="1:12">
+      <c r="A56" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B56" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C56" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D56" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="72"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="43"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="43"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="44"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="73"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
       <c r="F57" s="58"/>
       <c r="G57" s="58"/>
       <c r="H57" s="58"/>
@@ -3345,42 +3421,37 @@
       <c r="L57"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A58" s="43"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="43"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
       <c r="F60" s="58"/>
       <c r="G60" s="58"/>
       <c r="H60" s="58"/>
@@ -3389,298 +3460,266 @@
       <c r="L60"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="43"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
+      <c r="A61" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="44"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
+      <c r="A62" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
       <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64"/>
-      <c r="B64" t="s">
+      <c r="A64" s="43"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="44"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67"/>
+      <c r="B67" t="s">
         <v>75</v>
       </c>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="3" t="s">
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="14"/>
-    </row>
-    <row r="66" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A66" s="116" t="s">
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="14"/>
+    </row>
+    <row r="69" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A69" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="116" t="s">
+      <c r="B69" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="113" t="s">
+      <c r="C69" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="113" t="s">
+      <c r="D69" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="113" t="s">
+      <c r="E69" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="114" t="s">
+      <c r="F69" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="G66" s="114" t="s">
+      <c r="G69" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="H66" s="124" t="s">
+      <c r="H69" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="I66" s="113" t="s">
+      <c r="I69" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="J66" s="113"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="9"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="116"/>
-      <c r="B67" s="116"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113"/>
-      <c r="F67" s="115"/>
-      <c r="G67" s="115"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="113"/>
-      <c r="J67" s="113"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="14"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="18">
-        <v>1</v>
-      </c>
-      <c r="B68" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="14"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="18">
-        <f>A68+1</f>
-        <v>2</v>
-      </c>
-      <c r="B69" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" s="19"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="14"/>
+      <c r="J69" s="113"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="9"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="18">
-        <f t="shared" ref="A70:A84" si="0">A69+1</f>
-        <v>3</v>
-      </c>
-      <c r="B70" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="59"/>
-      <c r="I70" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="21"/>
+      <c r="A70" s="116"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="113"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="115"/>
+      <c r="G70" s="115"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="28"/>
       <c r="M70" s="14"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="18">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B71" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="70" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="B71" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="68" t="s">
+        <v>48</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
-      <c r="G71" s="59" t="s">
-        <v>14</v>
-      </c>
+      <c r="G71" s="59"/>
       <c r="H71" s="59"/>
       <c r="I71" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="20"/>
-      <c r="L71" s="21"/>
+      <c r="L71" s="27"/>
       <c r="M71" s="14"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B72" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="70" t="s">
-        <v>48</v>
+        <f>A71+1</f>
+        <v>2</v>
+      </c>
+      <c r="B72" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="68" t="s">
+        <v>50</v>
       </c>
       <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+      <c r="E72" s="19" t="b">
+        <v>1</v>
+      </c>
       <c r="F72" s="19"/>
-      <c r="G72" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="59" t="s">
-        <v>104</v>
-      </c>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
       <c r="I72" s="19" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
-      <c r="L72" s="21"/>
+      <c r="L72" s="27"/>
       <c r="M72" s="14"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="18">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B73" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65" t="s">
+        <f t="shared" ref="A73:A87" si="0">A72+1</f>
+        <v>3</v>
+      </c>
+      <c r="B73" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H73" s="65" t="s">
-        <v>109</v>
-      </c>
+      <c r="G73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="59"/>
       <c r="I73" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="67"/>
+        <v>55</v>
+      </c>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="21"/>
       <c r="M73" s="14"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="18">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="70"/>
+        <v>4</v>
+      </c>
+      <c r="B74" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="70" t="s">
+        <v>54</v>
+      </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
-      <c r="G74" s="59"/>
+      <c r="G74" s="59" t="s">
+        <v>14</v>
+      </c>
       <c r="H74" s="59"/>
-      <c r="I74" s="19"/>
+      <c r="I74" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="J74" s="20"/>
       <c r="K74" s="20"/>
       <c r="L74" s="21"/>
@@ -3689,34 +3728,56 @@
     <row r="75" spans="1:13">
       <c r="A75" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B75" s="63"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="66"/>
-      <c r="L75" s="67"/>
+        <v>5</v>
+      </c>
+      <c r="B75" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="21"/>
       <c r="M75" s="14"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="18">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B76" s="63"/>
-      <c r="C76" s="70"/>
+        <v>6</v>
+      </c>
+      <c r="B76" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="70" t="s">
+        <v>48</v>
+      </c>
       <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
+      <c r="E76" s="64" t="s">
+        <v>110</v>
+      </c>
       <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="64"/>
+      <c r="G76" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="J76" s="66"/>
       <c r="K76" s="66"/>
       <c r="L76" s="67"/>
@@ -3725,7 +3786,7 @@
     <row r="77" spans="1:13">
       <c r="A77" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B77" s="63"/>
       <c r="C77" s="70"/>
@@ -3743,7 +3804,7 @@
     <row r="78" spans="1:13">
       <c r="A78" s="18">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B78" s="63"/>
       <c r="C78" s="70"/>
@@ -3761,7 +3822,7 @@
     <row r="79" spans="1:13">
       <c r="A79" s="18">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B79" s="63"/>
       <c r="C79" s="70"/>
@@ -3779,7 +3840,7 @@
     <row r="80" spans="1:13">
       <c r="A80" s="18">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B80" s="63"/>
       <c r="C80" s="70"/>
@@ -3797,7 +3858,7 @@
     <row r="81" spans="1:13">
       <c r="A81" s="18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B81" s="63"/>
       <c r="C81" s="70"/>
@@ -3815,7 +3876,7 @@
     <row r="82" spans="1:13">
       <c r="A82" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B82" s="63"/>
       <c r="C82" s="70"/>
@@ -3833,7 +3894,7 @@
     <row r="83" spans="1:13">
       <c r="A83" s="18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B83" s="63"/>
       <c r="C83" s="70"/>
@@ -3851,7 +3912,7 @@
     <row r="84" spans="1:13">
       <c r="A84" s="18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B84" s="63"/>
       <c r="C84" s="70"/>
@@ -3867,302 +3928,302 @@
       <c r="M84" s="14"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="26"/>
+      <c r="A85" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B85" s="63"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="67"/>
       <c r="M85" s="14"/>
     </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B86" s="63"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="14"/>
+    </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B87" s="63"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="14"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="14"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="1" t="s">
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="39" t="s">
+    <row r="91" spans="1:13">
+      <c r="A91" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B91" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="43"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="43"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="44"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="58"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
       <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93"/>
-      <c r="B93" t="s">
+      <c r="A93" s="43"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="44"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96"/>
+      <c r="B96" t="s">
         <v>82</v>
       </c>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="3" t="s">
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="14"/>
-    </row>
-    <row r="95" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A95" s="116" t="s">
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="14"/>
+    </row>
+    <row r="98" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A98" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="116" t="s">
+      <c r="B98" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C95" s="113" t="s">
+      <c r="C98" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="D95" s="113" t="s">
+      <c r="D98" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="E95" s="113" t="s">
+      <c r="E98" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="F95" s="110"/>
-      <c r="G95" s="110"/>
-      <c r="H95" s="110"/>
-      <c r="I95" s="112"/>
-      <c r="J95" s="113"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="9"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="116"/>
-      <c r="B96" s="116"/>
-      <c r="C96" s="113"/>
-      <c r="D96" s="113"/>
-      <c r="E96" s="113"/>
-      <c r="F96" s="111"/>
-      <c r="G96" s="111"/>
-      <c r="H96" s="111"/>
-      <c r="I96" s="112"/>
-      <c r="J96" s="113"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="14"/>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="18">
-        <v>1</v>
-      </c>
-      <c r="B97" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C97" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F97" s="77"/>
-      <c r="G97" s="79"/>
-      <c r="H97" s="79"/>
-      <c r="I97" s="77"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="14"/>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="18">
-        <f>A97+1</f>
-        <v>2</v>
-      </c>
-      <c r="B98" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F98" s="77"/>
-      <c r="G98" s="79"/>
-      <c r="H98" s="79"/>
-      <c r="I98" s="77"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="14"/>
+      <c r="F98" s="110"/>
+      <c r="G98" s="110"/>
+      <c r="H98" s="110"/>
+      <c r="I98" s="112"/>
+      <c r="J98" s="113"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="9"/>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="18">
-        <f t="shared" ref="A99:A103" si="1">A98+1</f>
-        <v>3</v>
-      </c>
-      <c r="B99" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F99" s="77"/>
-      <c r="G99" s="79"/>
-      <c r="H99" s="79"/>
-      <c r="I99" s="77"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="21"/>
+      <c r="A99" s="116"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="113"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="113"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="111"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="113"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="28"/>
       <c r="M99" s="14"/>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B100" s="63"/>
-      <c r="C100" s="70"/>
+        <v>1</v>
+      </c>
+      <c r="B100" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="68" t="s">
+        <v>48</v>
+      </c>
       <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
+      <c r="E100" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="F100" s="77"/>
       <c r="G100" s="79"/>
       <c r="H100" s="79"/>
       <c r="I100" s="77"/>
       <c r="J100" s="20"/>
       <c r="K100" s="20"/>
-      <c r="L100" s="21"/>
+      <c r="L100" s="27"/>
       <c r="M100" s="14"/>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B101" s="63"/>
-      <c r="C101" s="70"/>
+        <f>A100+1</f>
+        <v>2</v>
+      </c>
+      <c r="B101" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="68" t="s">
+        <v>87</v>
+      </c>
       <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
+      <c r="E101" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="F101" s="77"/>
       <c r="G101" s="79"/>
       <c r="H101" s="79"/>
       <c r="I101" s="77"/>
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
-      <c r="L101" s="21"/>
+      <c r="L101" s="27"/>
       <c r="M101" s="14"/>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B102" s="63"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="78"/>
-      <c r="G102" s="80"/>
-      <c r="H102" s="80"/>
-      <c r="I102" s="78"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="67"/>
+        <f t="shared" ref="A102:A106" si="1">A101+1</f>
+        <v>3</v>
+      </c>
+      <c r="B102" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" s="77"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="21"/>
       <c r="M102" s="14"/>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B103" s="63"/>
       <c r="C103" s="70"/>
@@ -4177,60 +4238,114 @@
       <c r="L103" s="21"/>
       <c r="M103" s="14"/>
     </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B104" s="63"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="79"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="14"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B105" s="63"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="80"/>
+      <c r="H105" s="80"/>
+      <c r="I105" s="78"/>
+      <c r="J105" s="66"/>
+      <c r="K105" s="66"/>
+      <c r="L105" s="67"/>
+      <c r="M105" s="14"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B106" s="63"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I66:J67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="F66:F67"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="I69:J70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:J96"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:J99"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G98:G99"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E107:H107" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E110:H110" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C26" xr:uid="{78FE03A8-B82F-DD42-A5B2-F5AED31EB8E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C27" xr:uid="{78FE03A8-B82F-DD42-A5B2-F5AED31EB8E5}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{0933AF92-3C0C-2F47-AF58-F84946F39270}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{0933AF92-3C0C-2F47-AF58-F84946F39270}">
       <formula1>componentKind</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F68:G85 C17 C19:C23" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F71:G88 C18 C20:C24" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
       <formula1>yesNo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{CCFC1331-CEEF-574E-9BCC-37D38F486896}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25" xr:uid="{CCFC1331-CEEF-574E-9BCC-37D38F486896}">
       <formula1>adjustFieldName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54:C56" xr:uid="{BDE40890-40F7-4E41-B7E1-478CEBD85557}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C59" xr:uid="{BDE40890-40F7-4E41-B7E1-478CEBD85557}">
       <formula1>httpdMethod</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{B3BDB514-7849-7346-B29F-0809D4138732}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{B3BDB514-7849-7346-B29F-0809D4138732}">
       <formula1>layoutType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C33" xr:uid="{D073ACF5-A392-2348-B361-3D576C1BA990}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C36" xr:uid="{D073ACF5-A392-2348-B361-3D576C1BA990}">
       <formula1>adjustFiledName</formula1>
       <formula2>0</formula2>
     </dataValidation>
